--- a/data/trans_dic/P25A$molestias-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P25A$molestias-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -690,7 +691,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 25,49</t>
+          <t>0,0; 31,13</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -700,32 +701,32 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 37,67</t>
+          <t>0,0; 36,09</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,34</t>
+          <t>0,0; 26,49</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 30,7</t>
+          <t>0,0; 30,99</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,67</t>
+          <t>0,0; 23,02</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,83</t>
+          <t>0,0; 17,12</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,83</t>
+          <t>0,0; 23,84</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,49; 23,01</t>
+          <t>4,53; 25,28</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,03; 22,2</t>
+          <t>4,35; 21,02</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,1</t>
+          <t>0,0; 17,03</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,31; 20,05</t>
+          <t>4,3; 20,92</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,2; 12,02</t>
+          <t>1,2; 11,09</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,54; 12,86</t>
+          <t>1,54; 11,35</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,15; 17,98</t>
+          <t>6,24; 17,59</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,9; 13,66</t>
+          <t>3,84; 13,43</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,77; 12,91</t>
+          <t>1,74; 11,41</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,33; 20,1</t>
+          <t>6,75; 21,54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,38; 12,49</t>
+          <t>3,33; 12,78</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,15; 26,04</t>
+          <t>8,57; 26,58</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,64; 30,75</t>
+          <t>11,14; 30,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,83; 14,3</t>
+          <t>3,77; 13,84</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>11,91; 28,98</t>
+          <t>11,94; 29,7</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>10,63; 22,0</t>
+          <t>10,39; 21,5</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,36; 11,63</t>
+          <t>4,12; 11,53</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>11,79; 23,95</t>
+          <t>11,89; 24,15</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,52; 29,7</t>
+          <t>14,66; 29,64</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,83; 12,02</t>
+          <t>4,1; 12,53</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>12,78; 28,81</t>
+          <t>12,22; 28,36</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8,08; 26,43</t>
+          <t>8,28; 26,76</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,57; 15,68</t>
+          <t>3,38; 15,79</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,08; 20,55</t>
+          <t>5,96; 19,57</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>13,36; 25,84</t>
+          <t>13,85; 25,59</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,71; 11,31</t>
+          <t>4,6; 11,76</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>10,61; 21,81</t>
+          <t>10,36; 21,48</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>13,06; 26,08</t>
+          <t>12,83; 26,84</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,54; 19,03</t>
+          <t>6,12; 17,66</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,82; 20,74</t>
+          <t>7,96; 21,02</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>11,51; 59,02</t>
+          <t>11,22; 53,73</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>8,23; 34,42</t>
+          <t>8,11; 31,13</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>9,39; 33,06</t>
+          <t>9,72; 32,21</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>14,04; 27,15</t>
+          <t>14,5; 28,13</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>8,41; 19,62</t>
+          <t>8,45; 20,08</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>9,99; 20,98</t>
+          <t>10,47; 21,61</t>
         </is>
       </c>
     </row>
@@ -1235,17 +1236,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>14,99; 29,51</t>
+          <t>15,49; 29,92</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>10,08; 21,4</t>
+          <t>10,6; 21,65</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>11,45; 24,1</t>
+          <t>11,14; 24,38</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1255,27 +1256,27 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 56,65</t>
+          <t>0,0; 56,24</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>3,61; 30,29</t>
+          <t>3,61; 28,67</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>13,73; 26,72</t>
+          <t>14,35; 27,55</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>10,2; 21,9</t>
+          <t>10,29; 21,62</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>10,59; 22,66</t>
+          <t>10,95; 22,65</t>
         </is>
       </c>
     </row>
@@ -1345,17 +1346,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>15,37; 31,61</t>
+          <t>14,94; 30,33</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,71; 19,69</t>
+          <t>6,1; 19,01</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>12,98; 26,29</t>
+          <t>13,5; 26,27</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1365,7 +1366,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 66,48</t>
+          <t>0,0; 65,93</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1375,17 +1376,17 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>13,37; 28,54</t>
+          <t>13,92; 28,96</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>6,76; 18,87</t>
+          <t>6,44; 17,96</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>13,47; 27,35</t>
+          <t>13,99; 27,68</t>
         </is>
       </c>
     </row>
@@ -1455,47 +1456,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>15,9; 22,28</t>
+          <t>15,74; 21,93</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>8,59; 12,92</t>
+          <t>8,52; 13,2</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>12,8; 19,05</t>
+          <t>13,12; 19,28</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>10,68; 19,34</t>
+          <t>10,4; 19,27</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>5,96; 12,64</t>
+          <t>6,35; 12,83</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>10,05; 17,52</t>
+          <t>10,28; 17,63</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>15,24; 20,33</t>
+          <t>15,25; 20,38</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>8,31; 11,98</t>
+          <t>8,33; 11,93</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>12,82; 17,48</t>
+          <t>12,69; 17,37</t>
         </is>
       </c>
     </row>
@@ -1523,4 +1524,1455 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyo motivo para dejar de fumar fue, al menos, las molestias por causa del tabaco</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>987</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>1796</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>978</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>1026</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>1796</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>1965</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>1026</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1771</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5225</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1770</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5573</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5094</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5113</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6152</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6166</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6186</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>4640</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>7909</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>2814</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>7367</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>3865</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>2774</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>12007</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>11774</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>5588</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>1787; 9974</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>3165; 15291</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 8273</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>3016; 14655</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>993; 9187</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>894; 6580</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>6838; 19268</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>5979; 20897</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>1854; 12158</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>10438</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>7784</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>11862</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>13152</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>9655</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>16594</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>23590</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>17439</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>28457</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>5732; 18296</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>3737; 14361</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>6371; 19754</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>7383; 19881</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>4674; 17177</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>10502; 26115</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>15711; 32515</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>9752; 27253</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>19285; 39190</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>26822</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>12154</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>20899</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>8960</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>7479</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>10207</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>35782</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>19634</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>31106</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>18406; 37212</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>6964; 21294</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>13224; 30678</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>4867; 15720</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>3098; 14459</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>5259; 17271</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>25521; 47164</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>12034; 30748</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>20352; 42198</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>24218</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>15992</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>17928</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>5123</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>9334</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>10927</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>29341</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>25326</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>28855</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>16438; 34383</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>8588; 24767</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>10582; 27952</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>1956; 9370</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>4200; 16114</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>5534; 18336</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>21112; 40941</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>16217; 38560</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>19885; 41044</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>26818</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>25214</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>20779</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>1805</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>2994</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>26818</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>27019</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>23773</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>18886; 36477</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>17229; 35190</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>13722; 30041</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1707</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 5974</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>930; 7386</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>19437; 37313</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>17813; 37435</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>16316; 33738</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>24864</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>16234</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>20768</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>1005</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>1210</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>24864</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>17239</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>21978</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>16928; 34359</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>8624; 26902</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>14675; 28566</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2147</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>0; 4225</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2495</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>17051; 35486</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>9530; 26554</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>15560; 30781</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>117800</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>86275</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>95051</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>36399</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>34120</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>45732</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>154199</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>120395</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>140783</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>98278; 136992</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>69519; 107720</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>79415; 116761</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>26066; 48311</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>24537; 49587</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>34529; 59203</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>133501; 178395</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>100155; 143504</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>119428; 163504</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>